--- a/horarios_optimizados-829-push_gap_0.60.xlsx
+++ b/horarios_optimizados-829-push_gap_0.60.xlsx
@@ -780,17 +780,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P7" s="4" t="inlineStr"/>
       <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -838,11 +838,7 @@
       <c r="H8" s="4" t="inlineStr"/>
       <c r="I8" s="4" t="inlineStr"/>
       <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -873,17 +869,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R8" s="4" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -917,11 +913,7 @@
       <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr"/>
       <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G9" s="4" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -937,9 +929,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
@@ -1046,11 +1050,7 @@
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr"/>
       <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M10" s="4" t="inlineStr"/>
       <c r="N10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1411,12 +1411,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1497,30 +1497,50 @@
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1541,36 +1561,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
       <c r="Y18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1611,21 +1607,9 @@
         </is>
       </c>
       <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J19" s="4" t="inlineStr"/>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1641,9 +1625,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr"/>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S19" s="4" t="inlineStr"/>
       <c r="T19" s="4" t="inlineStr"/>
       <c r="U19" s="4" t="inlineStr"/>
@@ -1697,7 +1693,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1708,11 +1708,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T20" s="4" t="inlineStr"/>
       <c r="U20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1749,16 +1745,8 @@
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1774,10 +1762,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1951,11 +1951,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1966,7 +1962,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr"/>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2140,49 +2140,29 @@
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2203,13 +2183,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2333,7 +2337,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N30" s="4" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2349,11 +2357,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R30" s="4" t="inlineStr"/>
       <c r="S30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2400,8 +2404,16 @@
       <c r="C31" s="4" t="inlineStr"/>
       <c r="D31" s="4" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2417,27 +2429,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2923,12 +2923,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>16:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2992,20 +2992,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3035,19 +3045,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3073,12 +3083,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3111,17 +3121,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3130,10 +3140,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -3159,12 +3169,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3271,29 +3281,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -3362,12 +3372,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3400,29 +3410,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
